--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rawam\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5418A5B-2347-4CBE-A283-9B8D6A4D7874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BEB5D2-A1FB-487E-8AA1-FC61C32A44EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26250" yWindow="2370" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{B1E4EE34-0A05-D944-B647-1F6B22453739}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B1E4EE34-0A05-D944-B647-1F6B22453739}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>Rawa</t>
   </si>
@@ -100,9 +100,6 @@
     <t>ineuron</t>
   </si>
   <si>
-    <t>mukesh@gmail.com</t>
-  </si>
-  <si>
     <t>rawa</t>
   </si>
   <si>
@@ -191,6 +188,12 @@
   </si>
   <si>
     <t>Dura1@gmail.com</t>
+  </si>
+  <si>
+    <t>rawaineuron@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
   </si>
 </sst>
 </file>
@@ -295,7 +298,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30A3D24-651B-EBA7-0CC9-406631768EC5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -711,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B442829-4572-DE47-AE08-31D21E90B2EF}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -730,16 +733,17 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{8AD50160-347B-9C4B-A8B8-2498149C5897}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{7FAD3019-8F25-EF43-A35F-AB5064F41BEF}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{B4A6AD57-CA37-447B-AC1E-BAE370657C68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -764,13 +768,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -778,69 +782,69 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +865,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1025" r:id="rId11" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId12">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -891,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B964F56-44F2-412A-B38E-CC8F2A0DE8DE}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -905,19 +909,19 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -925,99 +929,99 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1085,23 +1089,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2">
         <v>12345452</v>
@@ -1109,7 +1113,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
